--- a/public/preprocessing/@YBRAP.xlsx
+++ b/public/preprocessing/@YBRAP.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>tweet_tokens_alay</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>tweet_tokens_fdist</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_WSW</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_stemmed</t>
         </is>
@@ -475,34 +480,39 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>19335</v>
+        <v>32171</v>
       </c>
       <c r="C2" t="n">
-        <v>235</v>
+        <v>373</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>kaga lupa</t>
+          <t>champions fun match league of legends wild rift</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['kaga', 'lupa']</t>
+          <t>['champions', 'fun', 'match', 'league', 'of', 'legends', 'wild', 'rift']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['champions', 'fun', 'match', 'league', 'of', 'legends', 'wild', 'rift']</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['kaga', 'lupa']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['kaga', 'lupa']</t>
+          <t>['champions', 'fun', 'match', 'league', 'of', 'legends', 'wild', 'rift']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['champions', 'fun', 'match', 'league', 'of', 'legends', 'wild', 'rift']</t>
         </is>
       </c>
     </row>
@@ -511,34 +521,39 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19336</v>
+        <v>32172</v>
       </c>
       <c r="C3" t="n">
-        <v>235</v>
+        <v>373</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>sengaja</t>
+          <t>haha</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['sengaja']</t>
+          <t>['haha']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>['haha']</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>['sengaja']</t>
-        </is>
-      </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['sengaja']</t>
+          <t>['haha']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['haha']</t>
         </is>
       </c>
     </row>
@@ -547,34 +562,39 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>19337</v>
+        <v>32173</v>
       </c>
       <c r="C4" t="n">
-        <v>235</v>
+        <v>373</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>my soontobe personal trainer thinks that im  normal human</t>
+          <t>pick agent then use it frequently</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['my', 'soontobe', 'personal', 'trainer', 'thinks', 'that', 'im', 'normal', 'human']</t>
+          <t>['pick', 'agent', 'then', 'use', 'it', 'frequently']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['pick', 'agent', 'then', 'use', 'it', 'frequently']</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['my', 'soontobe', 'personal', 'trainer', 'thinks', 'that', 'im', 'normal', 'human']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['my', 'soontobe', 'personal', 'trainer', 'thinks', 'that', 'im', 'normal', 'human']</t>
+          <t>['pick', 'agent', 'then', 'use', 'it', 'frequently']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['pick', 'agent', 'then', 'use', 'it', 'frequently']</t>
         </is>
       </c>
     </row>
@@ -583,34 +603,39 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>19338</v>
+        <v>32174</v>
       </c>
       <c r="C5" t="n">
-        <v>235</v>
+        <v>373</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>wendywalters  bct bgt</t>
+          <t xml:space="preserve"> carry  letsugo</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['wendywalters', 'bct', 'bgt']</t>
+          <t>['carry', 'letsugo']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['carry', 'letsugo']</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['wendywalters', 'bct', 'bgt']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['wendywalters', 'bct', 'bgt']</t>
+          <t>['carry', 'letsugo']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['carry', 'letsugo']</t>
         </is>
       </c>
     </row>
@@ -619,10 +644,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>19339</v>
+        <v>32175</v>
       </c>
       <c r="C6" t="n">
-        <v>235</v>
+        <v>373</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
@@ -632,15 +657,20 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="H6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -651,34 +681,35 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>19340</v>
+        <v>32176</v>
       </c>
       <c r="C7" t="n">
-        <v>235</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>lu gila</t>
-        </is>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['lu', 'gila']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['lu', 'gila']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['lu', 'gila']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -687,34 +718,39 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>19341</v>
+        <v>32177</v>
       </c>
       <c r="C8" t="n">
-        <v>235</v>
+        <v>373</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>when yall waiting for me you can watch other gamer who playing the game jk  know what you gon say nga usah nont</t>
+          <t>tsk ez</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['when', 'yall', 'waiting', 'for', 'me', 'you', 'can', 'watch', 'other', 'gamer', 'who', 'playing', 'the', 'game', 'jk', 'know', 'what', 'you', 'gon', 'say', 'nga', 'usah', 'nont']</t>
+          <t>['tsk', 'ez']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 22 samples and 23 outcomes&gt;</t>
+          <t>['tersangka', 'ez']</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['when', 'yall', 'waiting', 'for', 'me', 'you', 'can', 'watch', 'other', 'gamer', 'who', 'playing', 'the', 'game', 'jk', 'know', 'what', 'you', 'gon', 'say', 'nga', 'nont']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['when', 'yall', 'waiting', 'for', 'me', 'you', 'can', 'watch', 'other', 'gamer', 'who', 'playing', 'the', 'game', 'jk', 'know', 'what', 'you', 'gon', 'say', 'nga', 'nont']</t>
+          <t>['tersangka', 'ez']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['sangka', 'ez']</t>
         </is>
       </c>
     </row>
@@ -723,34 +759,39 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>19342</v>
+        <v>32178</v>
       </c>
       <c r="C9" t="n">
-        <v>235</v>
+        <v>373</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> know yall craving to see me playing little nightmares but  need to refresh and restart my mind and body first af</t>
+          <t>me tf no cap</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['know', 'yall', 'craving', 'to', 'see', 'me', 'playing', 'little', 'nightmares', 'but', 'need', 'to', 'refresh', 'and', 'restart', 'my', 'mind', 'and', 'body', 'first', 'af']</t>
+          <t>['me', 'tf', 'no', 'cap']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 21 outcomes&gt;</t>
+          <t>['me', 'transfer', 'no', 'cap']</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['know', 'yall', 'craving', 'to', 'see', 'me', 'playing', 'little', 'nightmares', 'but', 'need', 'to', 'refresh', 'and', 'restart', 'my', 'mind', 'and', 'body', 'first', 'af']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['know', 'yall', 'craving', 'to', 'see', 'me', 'playing', 'little', 'nightmares', 'but', 'need', 'to', 'refresh', 'and', 'restart', 'my', 'mind', 'and', 'body', 'first', 'af']</t>
+          <t>['me', 'transfer', 'no', 'cap']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['me', 'transfer', 'no', 'cap']</t>
         </is>
       </c>
     </row>
@@ -759,34 +800,35 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>19343</v>
+        <v>32179</v>
       </c>
       <c r="C10" t="n">
-        <v>235</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>wendywalters kau fokus saja sama berak kau itu toilet sampai lumer kau buat</t>
-        </is>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['wendywalters', 'kau', 'fokus', 'saja', 'sama', 'berak', 'kau', 'itu', 'toilet', 'sampai', 'lumer', 'kau', 'buat']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 13 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['wendywalters', 'kau', 'fokus', 'berak', 'kau', 'toilet', 'lumer', 'kau']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['wendywalters', 'kau', 'fokus', 'berak', 'kau', 'toilet', 'lumer', 'kau']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -795,34 +837,39 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>19344</v>
+        <v>32180</v>
       </c>
       <c r="C11" t="n">
-        <v>235</v>
+        <v>373</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>itu keringet</t>
+          <t>nope</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['itu', 'keringet']</t>
+          <t>['nope']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['enggak']</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['keringet']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['keringet']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -831,34 +878,39 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>19345</v>
+        <v>32181</v>
       </c>
       <c r="C12" t="n">
-        <v>235</v>
+        <v>373</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>still edit for the full video but  know you rly want to see the teaser so there you go</t>
+          <t xml:space="preserve"> will join wild rift esports team boss fun match tonight live at wildriftesportsindonesia youtube channel pm sh</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['still', 'edit', 'for', 'the', 'full', 'video', 'but', 'know', 'you', 'rly', 'want', 'to', 'see', 'the', 'teaser', 'so', 'there', 'you', 'go']</t>
+          <t>['will', 'join', 'wild', 'rift', 'esports', 'team', 'boss', 'fun', 'match', 'tonight', 'live', 'at', 'wildriftesportsindonesia', 'youtube', 'channel', 'pm', 'sh']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
+          <t>['will', 'join', 'wild', 'rift', 'esports', 'tim', 'bos', 'fun', 'match', 'tonight', 'live', 'at', 'wildriftesportsindonesia', 'youtube', 'channel', 'pm', 'sh']</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['still', 'edit', 'for', 'the', 'full', 'video', 'but', 'know', 'you', 'rly', 'want', 'to', 'see', 'the', 'teaser', 'so', 'there', 'you', 'go']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['still', 'edit', 'for', 'the', 'full', 'video', 'but', 'know', 'you', 'rly', 'want', 'to', 'see', 'the', 'teaser', 'so', 'there', 'you', 'go']</t>
+          <t>['will', 'join', 'wild', 'rift', 'esports', 'tim', 'bos', 'fun', 'match', 'tonight', 'live', 'at', 'wildriftesportsindonesia', 'youtube', 'channel', 'pm', 'sh']</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['will', 'join', 'wild', 'rift', 'esports', 'tim', 'bos', 'fun', 'match', 'tonight', 'live', 'at', 'wildriftesportsindonesia', 'youtube', 'channel', 'pm', 'sh']</t>
         </is>
       </c>
     </row>
@@ -867,34 +919,39 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>19346</v>
+        <v>32182</v>
       </c>
       <c r="C13" t="n">
-        <v>235</v>
+        <v>373</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>me life</t>
+          <t>ill be minding my own business</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['me', 'life']</t>
+          <t>['ill', 'be', 'minding', 'my', 'own', 'business']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['ill', 'be', 'minding', 'my', 'own', 'business']</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['me', 'life']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['me', 'life']</t>
+          <t>['ill', 'be', 'minding', 'my', 'own', 'business']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['ill', 'be', 'minding', 'my', 'own', 'business']</t>
         </is>
       </c>
     </row>
@@ -903,34 +960,39 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>19347</v>
+        <v>32183</v>
       </c>
       <c r="C14" t="n">
-        <v>235</v>
+        <v>373</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>maaaannn im out</t>
+          <t>now  have more than  so  leave that behind  take if its businessfirst class if its not then  pick</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['maaaannn', 'im', 'out']</t>
+          <t>['now', 'have', 'more', 'than', 'so', 'leave', 'that', 'behind', 'take', 'if', 'its', 'businessfirst', 'class', 'if', 'its', 'not', 'then', 'pick']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['now', 'have', 'more', 'tahan', 'sok', 'leave', 'that', 'behind', 'take', 'if', 'ini', 'businessfirst', 'class', 'if', 'ini', 'not', 'then', 'pick']</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['maaaannn', 'im', 'out']</t>
+          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['maaaannn', 'im', 'out']</t>
+          <t>['now', 'have', 'more', 'tahan', 'sok', 'leave', 'that', 'behind', 'take', 'if', 'businessfirst', 'class', 'if', 'not', 'then', 'pick']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['now', 'have', 'more', 'tahan', 'sok', 'leave', 'that', 'behind', 'take', 'if', 'businessfirst', 'class', 'if', 'not', 'then', 'pick']</t>
         </is>
       </c>
     </row>
@@ -939,34 +1001,39 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>19348</v>
+        <v>32184</v>
       </c>
       <c r="C15" t="n">
-        <v>235</v>
+        <v>373</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> is fine</t>
+          <t>good night</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['is', 'fine']</t>
+          <t>['good', 'night']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>['good', 'night']</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>['is', 'fine']</t>
-        </is>
-      </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['is', 'fine']</t>
+          <t>['good', 'night']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['good', 'night']</t>
         </is>
       </c>
     </row>
@@ -975,34 +1042,39 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>19349</v>
+        <v>32185</v>
       </c>
       <c r="C16" t="n">
-        <v>235</v>
+        <v>373</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>indonesia au tu</t>
+          <t>btr msh in game</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['indonesia', 'au', 'tu']</t>
+          <t>['btr', 'msh', 'in', 'game']</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['btr', 'masih', 'in', 'game']</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['indonesia', 'au', 'tu']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['indonesia', 'au', 'tu']</t>
+          <t>['btr', 'in', 'game']</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>['btr', 'in', 'game']</t>
         </is>
       </c>
     </row>
@@ -1011,34 +1083,39 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>19350</v>
+        <v>32186</v>
       </c>
       <c r="C17" t="n">
-        <v>235</v>
+        <v>373</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>indonesia they wont reply</t>
+          <t>im still on silver how tf  carry plat</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['indonesia', 'they', 'wont', 'reply']</t>
+          <t>['im', 'still', 'on', 'silver', 'how', 'tf', 'carry', 'plat']</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['im', 'still', 'on', 'silver', 'how', 'transfer', 'carry', 'plat']</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['indonesia', 'they', 'wont', 'reply']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['indonesia', 'they', 'wont', 'reply']</t>
+          <t>['im', 'still', 'on', 'silver', 'how', 'transfer', 'carry', 'plat']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['im', 'still', 'on', 'silver', 'how', 'transfer', 'carry', 'plat']</t>
         </is>
       </c>
     </row>
@@ -1047,34 +1124,39 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>19351</v>
+        <v>32187</v>
       </c>
       <c r="C18" t="n">
-        <v>235</v>
+        <v>373</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>how many retweets that  need to get the  from you asking for  friend indonesia</t>
+          <t>ign</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['how', 'many', 'retweets', 'that', 'need', 'to', 'get', 'the', 'from', 'you', 'asking', 'for', 'friend', 'indonesia']</t>
+          <t>['ign']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['ign']</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['how', 'many', 'retweets', 'that', 'need', 'to', 'get', 'the', 'from', 'you', 'asking', 'for', 'friend', 'indonesia']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['how', 'many', 'retweets', 'that', 'need', 'to', 'get', 'the', 'from', 'you', 'asking', 'for', 'friend', 'indonesia']</t>
+          <t>['ign']</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['ign']</t>
         </is>
       </c>
     </row>
@@ -1083,34 +1165,39 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>19352</v>
+        <v>32188</v>
       </c>
       <c r="C19" t="n">
-        <v>235</v>
+        <v>373</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>taro laci</t>
+          <t>wild rift anyone</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['taro', 'laci']</t>
+          <t>['wild', 'rift', 'anyone']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['wild', 'rift', 'anyone']</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>['taro', 'laci']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['taro', 'laci']</t>
+          <t>['wild', 'rift', 'anyone']</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>['wild', 'rift', 'anyone']</t>
         </is>
       </c>
     </row>
@@ -1119,34 +1206,39 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>19353</v>
+        <v>32189</v>
       </c>
       <c r="C20" t="n">
-        <v>235</v>
+        <v>373</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> dont pet  glob</t>
+          <t>yee bawa velg  mah yodade  dkung</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['dont', 'pet', 'glob']</t>
+          <t>['yee', 'bawa', 'velg', 'mah', 'yodade', 'dkung']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['iya', 'bawa', 'velg', 'adalah', 'yodade', 'dukung']</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>['dont', 'pet', 'glob']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['dont', 'pet', 'glob']</t>
+          <t>['iya', 'bawa', 'velg', 'yodade', 'dukung']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['iya', 'bawa', 'velg', 'yodade', 'dukung']</t>
         </is>
       </c>
     </row>
@@ -1155,34 +1247,39 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>19354</v>
+        <v>32190</v>
       </c>
       <c r="C21" t="n">
-        <v>235</v>
+        <v>373</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>matamu mancing</t>
+          <t>nga ad ak</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['matamu', 'mancing']</t>
+          <t>['nga', 'ad', 'ak']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['tidak', 'ada', 'aku']</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>['matamu', 'mancing']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['mata', 'mancing']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1191,30 +1288,39 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>19355</v>
+        <v>32191</v>
       </c>
       <c r="C22" t="n">
-        <v>235</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
+        <v>373</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>buat apa anjing irli</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['buat', 'apa', 'anjing', 'irli']</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['buat', 'apa', 'anjing', 'irli']</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['anjing', 'irli']</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>['anjing', 'irli']</t>
         </is>
       </c>
     </row>
@@ -1223,30 +1329,39 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>19356</v>
+        <v>32192</v>
       </c>
       <c r="C23" t="n">
-        <v>235</v>
-      </c>
-      <c r="D23" t="inlineStr"/>
+        <v>373</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>who</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['who']</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['who']</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['who']</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>['who']</t>
         </is>
       </c>
     </row>
@@ -1255,34 +1370,39 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>19357</v>
+        <v>32193</v>
       </c>
       <c r="C24" t="n">
-        <v>235</v>
+        <v>373</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>emang liquid hype ya yaudah nga jadi deh</t>
+          <t>bule discovered kolek</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['emang', 'liquid', 'hype', 'ya', 'yaudah', 'nga', 'jadi', 'deh']</t>
+          <t>['bule', 'discovered', 'kolek']</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['bule', 'discovered', 'kolek']</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['emang', 'liquid', 'hype', 'yaudah', 'nga', 'deh']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['emang', 'liquid', 'hype', 'yaudah', 'nga', 'deh']</t>
+          <t>['bule', 'discovered', 'kolek']</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>['bule', 'discovered', 'kolek']</t>
         </is>
       </c>
     </row>
@@ -1291,34 +1411,39 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>19358</v>
+        <v>32194</v>
       </c>
       <c r="C25" t="n">
-        <v>235</v>
+        <v>373</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>santai anjing</t>
+          <t>anda siapa</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['santai', 'anjing']</t>
+          <t>['anda', 'siapa']</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>['anda', 'siapa']</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>['santai', 'anjing']</t>
-        </is>
-      </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['santai', 'anjing']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1327,34 +1452,39 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>19359</v>
+        <v>32195</v>
       </c>
       <c r="C26" t="n">
-        <v>235</v>
+        <v>373</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve">baru juga ngomong </t>
+          <t>whos having  birthday today</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['baru', 'juga', 'ngomong']</t>
+          <t>['whos', 'having', 'birthday', 'today']</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['whos', 'having', 'birthday', 'today']</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['ngomong']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['ngomong']</t>
+          <t>['whos', 'having', 'birthday', 'today']</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>['whos', 'having', 'birthday', 'today']</t>
         </is>
       </c>
     </row>
@@ -1363,34 +1493,39 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>19360</v>
+        <v>32196</v>
       </c>
       <c r="C27" t="n">
-        <v>235</v>
+        <v>373</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>merk gua lah  yekali</t>
+          <t>bening wah</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['merk', 'gua', 'lah', 'yekali']</t>
+          <t>['bening', 'wah']</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['bening', 'wah']</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>['merk', 'gua', 'yekali']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['merk', 'gua', 'yekali']</t>
+          <t>['bening']</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>['bening']</t>
         </is>
       </c>
     </row>
@@ -1399,34 +1534,39 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>19361</v>
+        <v>32197</v>
       </c>
       <c r="C28" t="n">
-        <v>235</v>
+        <v>373</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>bikin liquid vape ah</t>
+          <t>mardial capek bgt</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['bikin', 'liquid', 'vape', 'ah']</t>
+          <t>['mardial', 'capek', 'bgt']</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['mardial', 'cape', 'banget']</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>['liquid', 'vape', 'ah']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['liquid', 'vape', 'ah']</t>
+          <t>['mardial', 'cape', 'banget']</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['mardial', 'cape', 'banget']</t>
         </is>
       </c>
     </row>
@@ -1435,34 +1575,39 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>19362</v>
+        <v>32198</v>
       </c>
       <c r="C29" t="n">
-        <v>235</v>
+        <v>373</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>wendywalters oh gua kaga</t>
+          <t>bade ngising sek</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['wendywalters', 'oh', 'gua', 'kaga']</t>
+          <t>['bade', 'ngising', 'sek']</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['bade', 'ngising', 'sek']</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['wendywalters', 'oh', 'gua', 'kaga']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['wendywalters', 'oh', 'gua', 'kaga']</t>
+          <t>['bade', 'ngising', 'sek']</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>['bade', 'ngising', 'sek']</t>
         </is>
       </c>
     </row>
@@ -1471,34 +1616,35 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>19363</v>
+        <v>32199</v>
       </c>
       <c r="C30" t="n">
-        <v>235</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>rt cutest boop ever</t>
-        </is>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['rt', 'cutest', 'boop', 'ever']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['cutest', 'boop', 'ever']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['cutest', 'boop', 'ever']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1507,34 +1653,35 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>19364</v>
+        <v>32200</v>
       </c>
       <c r="C31" t="n">
-        <v>235</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>rapjirou anjeng kok tanjirap jelek bgt tai wkwk</t>
-        </is>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['rapjirou', 'anjeng', 'kok', 'tanjirap', 'jelek', 'bgt', 'tai', 'wkwk']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['rapjirou', 'anjeng', 'tanjirap', 'jelek', 'bgt', 'tai', 'wkwk']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['rapjirou', 'anjeng', 'tanjirap', 'jelek', 'bgt', 'tai', 'wkwk']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1543,34 +1690,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>19365</v>
+        <v>32201</v>
       </c>
       <c r="C32" t="n">
-        <v>235</v>
+        <v>373</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve">frum toilet fo </t>
+          <t>gmn</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['frum', 'toilet', 'fo']</t>
+          <t>['gmn']</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['bagaimana']</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['frum', 'toilet', 'fo']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['frum', 'toilet', 'fo']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1579,34 +1731,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>19366</v>
+        <v>32202</v>
       </c>
       <c r="C33" t="n">
-        <v>235</v>
+        <v>373</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>ahahahahahahahahh</t>
+          <t>on stream in</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['ahahahahahahahahh']</t>
+          <t>['on', 'stream', 'in']</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['on', 'stream', 'in']</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['ahahahahahahahahh']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['ahahahahahahahahh']</t>
+          <t>['on', 'stream', 'in']</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>['on', 'stream', 'in']</t>
         </is>
       </c>
     </row>
@@ -1615,34 +1772,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>19367</v>
+        <v>32203</v>
       </c>
       <c r="C34" t="n">
-        <v>235</v>
+        <v>373</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>tr gua tanyain</t>
+          <t>sepi</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['tr', 'gua', 'tanyain']</t>
+          <t>['sepi']</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['sepi']</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>['tr', 'gua', 'tanyain']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['tr', 'gua', 'tanyain']</t>
+          <t>['sepi']</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>['sepi']</t>
         </is>
       </c>
     </row>
@@ -1651,34 +1813,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>19368</v>
+        <v>32204</v>
       </c>
       <c r="C35" t="n">
-        <v>235</v>
+        <v>373</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>this too</t>
+          <t>rt</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['this', 'too']</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['this', 'too']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['this', 'too']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1687,34 +1854,35 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>19369</v>
+        <v>32205</v>
       </c>
       <c r="C36" t="n">
-        <v>235</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> goat</t>
-        </is>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['goat']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['goat']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['goat']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1723,34 +1891,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>19370</v>
+        <v>32206</v>
       </c>
       <c r="C37" t="n">
-        <v>235</v>
+        <v>373</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>mug ini juga aaaa</t>
+          <t>last day valorant tournament</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['mug', 'ini', 'juga', 'aaaa']</t>
+          <t>['last', 'day', 'valorant', 'tournament']</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>['last', 'day', 'valorant', 'tournament']</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>['mug', 'aaaa']</t>
-        </is>
-      </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['mug', 'aaaa']</t>
+          <t>['last', 'day', 'valorant', 'tournament']</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>['last', 'day', 'valorant', 'tournament']</t>
         </is>
       </c>
     </row>
@@ -1759,34 +1932,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>19371</v>
+        <v>32207</v>
       </c>
       <c r="C38" t="n">
-        <v>235</v>
+        <v>373</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>steam</t>
+          <t>buset kaga uda</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['steam']</t>
+          <t>['buset', 'kaga', 'uda']</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['buset', 'tidak', 'sudah']</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>['steam']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['steam']</t>
+          <t>['buset']</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>['buset']</t>
         </is>
       </c>
     </row>
@@ -1795,34 +1973,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>19372</v>
+        <v>32208</v>
       </c>
       <c r="C39" t="n">
-        <v>235</v>
+        <v>373</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>shes  keeper</t>
+          <t>fuck  leaked it zz baka</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['shes', 'keeper']</t>
+          <t>['fuck', 'leaked', 'it', 'zz', 'baka']</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['fuck', 'leaked', 'it', 'hem', 'baka']</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>['shes', 'keeper']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['shes', 'keeper']</t>
+          <t>['fuck', 'leaked', 'it', 'hem', 'baka']</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>['fuck', 'leaked', 'it', 'hem', 'baka']</t>
         </is>
       </c>
     </row>
@@ -1831,34 +2014,35 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>19373</v>
+        <v>32209</v>
       </c>
       <c r="C40" t="n">
-        <v>235</v>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>also tomba omfg</t>
-        </is>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['also', 'tomba', 'omfg']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>['also', 'tomba', 'omfg']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['also', 'tomba', 'omfg']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1867,34 +2051,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>19374</v>
+        <v>32210</v>
       </c>
       <c r="C41" t="n">
-        <v>235</v>
+        <v>373</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>no thx</t>
+          <t>day valorant tournament</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['no', 'thx']</t>
+          <t>['day', 'valorant', 'tournament']</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['day', 'valorant', 'tournament']</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>['no', 'thx']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['no', 'thx']</t>
+          <t>['day', 'valorant', 'tournament']</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>['day', 'valorant', 'tournament']</t>
         </is>
       </c>
     </row>
@@ -1903,34 +2092,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>19375</v>
+        <v>32211</v>
       </c>
       <c r="C42" t="n">
-        <v>235</v>
+        <v>373</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>ngada yang gua sentuh itu semua</t>
+          <t>day valorant tournament at pm</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['ngada', 'yang', 'gua', 'sentuh', 'itu', 'semua']</t>
+          <t>['day', 'valorant', 'tournament', 'at', 'pm']</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['day', 'valorant', 'tournament', 'at', 'pm']</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>['ngada', 'gua', 'sentuh']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['ngada', 'gua', 'sentuh']</t>
+          <t>['day', 'valorant', 'tournament', 'at', 'pm']</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>['day', 'valorant', 'tournament', 'at', 'pm']</t>
         </is>
       </c>
     </row>
@@ -1939,34 +2133,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>19376</v>
+        <v>32212</v>
       </c>
       <c r="C43" t="n">
-        <v>235</v>
+        <v>373</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>breathe of fire alskskalrkalkda chrono cross qpwowkskajd</t>
+          <t>first time jesus doing vlog on youtube</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['breathe', 'of', 'fire', 'alskskalrkalkda', 'chrono', 'cross', 'qpwowkskajd']</t>
+          <t>['first', 'time', 'jesus', 'doing', 'vlog', 'on', 'youtube']</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>['first', 'time', 'yesus', 'doing', 'vlog', 'on', 'youtube']</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>['breathe', 'of', 'fire', 'alskskalrkalkda', 'chrono', 'cross', 'qpwowkskajd']</t>
-        </is>
-      </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['breathe', 'of', 'fire', 'alskskalrkalkda', 'chrono', 'cross', 'qpwowkskajd']</t>
+          <t>['first', 'time', 'yesus', 'doing', 'vlog', 'on', 'youtube']</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>['first', 'time', 'yesus', 'doing', 'vlog', 'on', 'youtube']</t>
         </is>
       </c>
     </row>
@@ -1975,34 +2174,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>19377</v>
+        <v>32213</v>
       </c>
       <c r="C44" t="n">
-        <v>235</v>
+        <v>373</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>what was your best playstation memories mine</t>
+          <t xml:space="preserve"> timer</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['what', 'was', 'your', 'best', 'playstation', 'memories', 'mine']</t>
+          <t>['timer']</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['timer']</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>['what', 'was', 'your', 'best', 'playstation', 'memories', 'mine']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['what', 'was', 'your', 'best', 'playstation', 'memories', 'mine']</t>
+          <t>['timer']</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>['timer']</t>
         </is>
       </c>
     </row>
@@ -2011,34 +2215,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>19378</v>
+        <v>32214</v>
       </c>
       <c r="C45" t="n">
-        <v>235</v>
+        <v>373</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>rt the setup the shot</t>
+          <t>hehe</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['rt', 'the', 'setup', 'the', 'shot']</t>
+          <t>['hehe']</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 5 outcomes&gt;</t>
+          <t>['hehe']</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>['the', 'setup', 'the', 'shot']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['the', 'setup', 'the', 'shot']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2047,34 +2256,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>19379</v>
+        <v>32215</v>
       </c>
       <c r="C46" t="n">
-        <v>235</v>
+        <v>373</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>yudhistiraa cheers mf</t>
+          <t>yourbaeyourbae</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['yudhistiraa', 'cheers', 'mf']</t>
+          <t>['yourbaeyourbae']</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['yourbaeyourbae']</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>['yudhistiraa', 'cheers', 'mf']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['yudhistiraa', 'cheers', 'mf']</t>
+          <t>['yourbaeyourbae']</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>['yourbaeyourbae']</t>
         </is>
       </c>
     </row>
@@ -2083,34 +2297,39 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>19380</v>
+        <v>32216</v>
       </c>
       <c r="C47" t="n">
-        <v>235</v>
+        <v>373</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>this ones better</t>
+          <t>suru wendy</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>['this', 'ones', 'better']</t>
+          <t>['suru', 'wendy']</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['suruh', 'wendy']</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>['this', 'ones', 'better']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['this', 'ones', 'better']</t>
+          <t>['suruh', 'wendy']</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>['suruh', 'wendy']</t>
         </is>
       </c>
     </row>
@@ -2119,34 +2338,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>19381</v>
+        <v>32217</v>
       </c>
       <c r="C48" t="n">
-        <v>235</v>
+        <v>373</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>daydreaming</t>
+          <t>pas denger begitu</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>['daydreaming']</t>
+          <t>['pas', 'denger', 'begitu']</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['pas', 'dengar', 'begitu']</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>['daydreaming']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['daydreaming']</t>
+          <t>['pas', 'dengar']</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>['pas', 'dengar']</t>
         </is>
       </c>
     </row>
@@ -2155,34 +2379,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>19382</v>
+        <v>32218</v>
       </c>
       <c r="C49" t="n">
-        <v>235</v>
+        <v>373</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>explain</t>
+          <t>ill have another round today at pm anyway thanks</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>['explain']</t>
+          <t>['ill', 'have', 'another', 'round', 'today', 'at', 'pm', 'anyway', 'thanks']</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['ill', 'have', 'another', 'round', 'today', 'at', 'pm', 'anyway', 'terima, kasih']</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>['explain']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['explain']</t>
+          <t>['ill', 'have', 'another', 'round', 'today', 'at', 'pm', 'anyway', 'terima, kasih']</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>['ill', 'have', 'another', 'round', 'today', 'at', 'pm', 'anyway', 'terima kasih']</t>
         </is>
       </c>
     </row>
@@ -2191,30 +2420,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>19383</v>
+        <v>32219</v>
       </c>
       <c r="C50" t="n">
-        <v>235</v>
-      </c>
-      <c r="D50" t="inlineStr"/>
+        <v>373</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>bukan nasinya</t>
+        </is>
+      </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['bukan', 'nasinya']</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['bukan', 'nasinya']</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['nasinya']</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>['nasi']</t>
         </is>
       </c>
     </row>
@@ -2223,34 +2461,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>19384</v>
+        <v>32220</v>
       </c>
       <c r="C51" t="n">
-        <v>235</v>
+        <v>373</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>hashtag clubhouse</t>
+          <t>apa rasanya</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>['hashtag', 'clubhouse']</t>
+          <t>['apa', 'rasanya']</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
+          <t>['apa', 'rasanya']</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>['hashtag', 'clubhouse']</t>
-        </is>
-      </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['hashtag', 'clubhouse']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2259,30 +2502,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>19385</v>
+        <v>32221</v>
       </c>
       <c r="C52" t="n">
-        <v>235</v>
-      </c>
-      <c r="D52" t="inlineStr"/>
+        <v>373</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> feel tiredlike very tired</t>
+        </is>
+      </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['feel', 'tiredlike', 'very', 'tired']</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['feel', 'tiredlike', 'sangat', 'tired']</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['feel', 'tiredlike', 'tired']</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>['feel', 'tiredlike', 'tired']</t>
         </is>
       </c>
     </row>
@@ -2291,10 +2543,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>19386</v>
+        <v>32222</v>
       </c>
       <c r="C53" t="n">
-        <v>235</v>
+        <v>373</v>
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
@@ -2304,15 +2556,20 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="H53" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2323,30 +2580,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>19387</v>
+        <v>32223</v>
       </c>
       <c r="C54" t="n">
-        <v>235</v>
-      </c>
-      <c r="D54" t="inlineStr"/>
+        <v>373</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>my very first valorant tournament</t>
+        </is>
+      </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['my', 'very', 'first', 'valorant', 'tournament']</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['my', 'sangat', 'first', 'valorant', 'tournament']</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['my', 'first', 'valorant', 'tournament']</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>['my', 'first', 'valorant', 'tournament']</t>
         </is>
       </c>
     </row>
@@ -2355,34 +2621,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>19388</v>
+        <v>32224</v>
       </c>
       <c r="C55" t="n">
-        <v>235</v>
+        <v>373</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>wendywalters wendy punya satu yg ada isi  saac</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>['id']</t>
+          <t>['wendywalters', 'wendy', 'punya', 'satu', 'yg', 'ada', 'isi', 'saac']</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['wendywalters', 'wendy', 'punya', 'satu', 'yang', 'ada', 'isi', 'saac']</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>['id']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['id']</t>
+          <t>['wendywalters', 'wendy', 'isi', 'saac']</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>['wendywalters', 'wendy', 'isi', 'saac']</t>
         </is>
       </c>
     </row>
@@ -2391,34 +2662,35 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>19389</v>
+        <v>32225</v>
       </c>
       <c r="C56" t="n">
-        <v>235</v>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>blocked on tiktok lol</t>
-        </is>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['blocked', 'on', 'tiktok', 'lol']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>['blocked', 'on', 'tiktok', 'lol']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['blocked', 'on', 'tiktok', 'lol']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2427,34 +2699,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>19390</v>
+        <v>32226</v>
       </c>
       <c r="C57" t="n">
-        <v>235</v>
+        <v>373</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>bening kontol</t>
+          <t>akwoakwoakwoa</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>['bening', 'kontol']</t>
+          <t>['akwoakwoakwoa']</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['akwoakwoakwoa']</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>['bening', 'kontol']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['bening', 'kontol']</t>
+          <t>['akwoakwoakwoa']</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>['akwoakwoakwoa']</t>
         </is>
       </c>
     </row>
@@ -2463,34 +2740,35 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>19391</v>
+        <v>32227</v>
       </c>
       <c r="C58" t="n">
-        <v>235</v>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>bening calon masuk fesbuk lagi nih gua gegara pake ginian</t>
-        </is>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['bening', 'calon', 'masuk', 'fesbuk', 'lagi', 'nih', 'gua', 'gegara', 'pake', 'ginian']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>['bening', 'calon', 'masuk', 'fesbuk', 'gua', 'gegara', 'pake', 'ginian']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['bening', 'calon', 'masuk', 'fesbuk', 'gua', 'gegara', 'pake', 'ginian']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2499,34 +2777,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>19392</v>
+        <v>32228</v>
       </c>
       <c r="C59" t="n">
-        <v>235</v>
+        <v>373</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>ill be in silence mode hehe</t>
+          <t>taiiii</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>['ill', 'be', 'in', 'silence', 'mode', 'hehe']</t>
+          <t>['taiiii']</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['tai']</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>['ill', 'be', 'in', 'silence', 'mode']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['ill', 'be', 'in', 'silence', 'mode']</t>
+          <t>['tai']</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>['tai']</t>
         </is>
       </c>
     </row>
@@ -2535,34 +2818,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>19393</v>
+        <v>32229</v>
       </c>
       <c r="C60" t="n">
-        <v>235</v>
+        <v>373</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>wendywalters bro im minding my own business</t>
+          <t>waibi he cute</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>['wendywalters', 'bro', 'im', 'minding', 'my', 'own', 'business']</t>
+          <t>['waibi', 'he', 'cute']</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['waibi', 'he', 'cute']</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>['wendywalters', 'bro', 'im', 'minding', 'my', 'own', 'business']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['wendywalters', 'bro', 'im', 'minding', 'my', 'own', 'business']</t>
+          <t>['waibi', 'he', 'cute']</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>['waibi', 'he', 'cute']</t>
         </is>
       </c>
     </row>
@@ -2571,30 +2859,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>19394</v>
+        <v>32230</v>
       </c>
       <c r="C61" t="n">
-        <v>235</v>
-      </c>
-      <c r="D61" t="inlineStr"/>
+        <v>373</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>bro its am you could fuck but you chose to be hotman</t>
+        </is>
+      </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['bro', 'its', 'am', 'you', 'could', 'fuck', 'but', 'you', 'chose', 'to', 'be', 'hotman']</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['bro', 'ini', 'am', 'kamu', 'could', 'fuck', 'but', 'kamu', 'chose', 'to', 'be', 'hotman']</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['bro', 'am', 'could', 'fuck', 'but', 'chose', 'to', 'be', 'hotman']</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>['bro', 'am', 'could', 'fuck', 'but', 'chose', 'to', 'be', 'hotman']</t>
         </is>
       </c>
     </row>
@@ -2603,10 +2900,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>19395</v>
+        <v>32231</v>
       </c>
       <c r="C62" t="n">
-        <v>235</v>
+        <v>373</v>
       </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
@@ -2616,15 +2913,20 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="H62" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2635,30 +2937,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>19396</v>
+        <v>32232</v>
       </c>
       <c r="C63" t="n">
-        <v>235</v>
-      </c>
-      <c r="D63" t="inlineStr"/>
+        <v>373</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>hxh</t>
+        </is>
+      </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['hxh']</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['hxh']</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['hxh']</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>['hxh']</t>
         </is>
       </c>
     </row>
@@ -2667,34 +2978,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>19397</v>
+        <v>32233</v>
       </c>
       <c r="C64" t="n">
-        <v>235</v>
+        <v>373</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>morning bb</t>
+          <t>bae</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>['morning', 'bb']</t>
+          <t>['bae']</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['baik']</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>['morning', 'bb']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['morning', 'bb']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2703,34 +3019,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>19398</v>
+        <v>32234</v>
       </c>
       <c r="C65" t="n">
-        <v>235</v>
+        <v>373</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>who tweeted this</t>
+          <t>love yourself</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>['who', 'tweeted', 'this']</t>
+          <t>['love', 'yourself']</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['love', 'yourself']</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>['who', 'tweeted', 'this']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['who', 'tweeted', 'this']</t>
+          <t>['love', 'yourself']</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>['love', 'yourself']</t>
         </is>
       </c>
     </row>
@@ -2739,34 +3060,35 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>19399</v>
+        <v>32235</v>
       </c>
       <c r="C66" t="n">
-        <v>235</v>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>to every single person who hates me thank you thank you for wasting your time and energy to think bout how to dra</t>
-        </is>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>['to', 'every', 'single', 'person', 'who', 'hates', 'me', 'thank', 'you', 'thank', 'you', 'for', 'wasting', 'your', 'time', 'and', 'energy', 'to', 'think', 'bout', 'how', 'to', 'dra']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 23 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>['to', 'every', 'single', 'person', 'who', 'hates', 'me', 'thank', 'you', 'thank', 'you', 'for', 'wasting', 'your', 'time', 'and', 'energy', 'to', 'think', 'bout', 'how', 'to', 'dra']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['to', 'every', 'single', 'person', 'who', 'hates', 'me', 'thank', 'you', 'thank', 'you', 'for', 'wasting', 'your', 'time', 'and', 'energy', 'to', 'think', 'bout', 'how', 'to', 'dra']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2775,30 +3097,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>19400</v>
+        <v>32236</v>
       </c>
       <c r="C67" t="n">
-        <v>235</v>
-      </c>
-      <c r="D67" t="inlineStr"/>
+        <v>373</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>alfarizi baka</t>
+        </is>
+      </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['alfarizi', 'baka']</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['alfarizi', 'baka']</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['alfarizi', 'baka']</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>['alfarizi', 'baka']</t>
         </is>
       </c>
     </row>
@@ -2807,34 +3138,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>19401</v>
+        <v>32237</v>
       </c>
       <c r="C68" t="n">
-        <v>235</v>
+        <v>373</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>ill be back soon lets fly higher</t>
+          <t>latihan besok turni</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>['ill', 'be', 'back', 'soon', 'lets', 'fly', 'higher']</t>
+          <t>['latihan', 'besok', 'turni']</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['latihan', 'besok', 'turni']</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>['ill', 'be', 'back', 'soon', 'lets', 'fly', 'higher']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['ill', 'be', 'back', 'soon', 'lets', 'fly', 'higher']</t>
+          <t>['latihan', 'besok', 'turni']</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>['latih', 'besok', 'turni']</t>
         </is>
       </c>
     </row>
@@ -2843,34 +3179,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>19402</v>
+        <v>32238</v>
       </c>
       <c r="C69" t="n">
-        <v>235</v>
+        <v>373</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>im married</t>
+          <t xml:space="preserve"> join valorant tournament tomorrow haha</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>['im', 'married']</t>
+          <t>['join', 'valorant', 'tournament', 'tomorrow', 'haha']</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['join', 'valorant', 'tournament', 'tomorrow', 'haha']</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>['im', 'married']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['im', 'married']</t>
+          <t>['join', 'valorant', 'tournament', 'tomorrow', 'haha']</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>['join', 'valorant', 'tournament', 'tomorrow', 'haha']</t>
         </is>
       </c>
     </row>
@@ -2879,34 +3220,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>19403</v>
+        <v>32239</v>
       </c>
       <c r="C70" t="n">
-        <v>235</v>
+        <v>373</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>no cap</t>
+          <t>bening anak anjing</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>['no', 'cap']</t>
+          <t>['bening', 'anak', 'anjing']</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['bening', 'anak', 'anjing']</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>['no', 'cap']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['no', 'cap']</t>
+          <t>['bening', 'anak', 'anjing']</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>['bening', 'anak', 'anjing']</t>
         </is>
       </c>
     </row>
@@ -2915,34 +3261,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>19404</v>
+        <v>32240</v>
       </c>
       <c r="C71" t="n">
-        <v>235</v>
+        <v>373</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>memes</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>['no']</t>
+          <t>['memes']</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
+          <t>['memes']</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>['no']</t>
-        </is>
-      </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>['no']</t>
+          <t>['memes']</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>['mes']</t>
         </is>
       </c>
     </row>
@@ -2951,34 +3302,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>19405</v>
+        <v>32241</v>
       </c>
       <c r="C72" t="n">
-        <v>235</v>
+        <v>373</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>say something</t>
+          <t>beli dimanaa</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>['say', 'something']</t>
+          <t>['beli', 'dimanaa']</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
+          <t>['beli', 'dimanaa']</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>['say', 'something']</t>
-        </is>
-      </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['say', 'something']</t>
+          <t>['beli', 'dimanaa']</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>['beli', 'dimanaa']</t>
         </is>
       </c>
     </row>
@@ -2987,34 +3343,35 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>19406</v>
+        <v>32242</v>
       </c>
       <c r="C73" t="n">
-        <v>235</v>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>junius gmn kasitau</t>
-        </is>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['junius', 'gmn', 'kasitau']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>['junius', 'gmn', 'kasitau']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>['junius', 'gmn', 'kasitau']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3023,34 +3380,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>19407</v>
+        <v>32243</v>
       </c>
       <c r="C74" t="n">
-        <v>235</v>
+        <v>373</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>junius wasap</t>
+          <t>hz bentrok sama rilisan astralwerks kawan</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>['junius', 'wasap']</t>
+          <t>['hz', 'bentrok', 'sama', 'rilisan', 'astralwerks', 'kawan']</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['hz', 'bentrok', 'sama', 'rilisan', 'astralwerks', 'kawan']</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>['junius', 'wasap']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['junius', 'wasap']</t>
+          <t>['hz', 'bentrok', 'rilisan', 'astralwerks', 'kawan']</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>['hz', 'bentrok', 'rilis', 'astralwerks', 'kawan']</t>
         </is>
       </c>
     </row>
@@ -3059,34 +3421,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>19408</v>
+        <v>32244</v>
       </c>
       <c r="C75" t="n">
-        <v>235</v>
+        <v>373</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>junius mau dgr lagu wege next yg bkal mledak nga</t>
+          <t xml:space="preserve"> promise this year iwg will produce ost for anime ill retweet this later ikuzo minna</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>['junius', 'mau', 'dgr', 'lagu', 'wege', 'next', 'yg', 'bkal', 'mledak', 'nga']</t>
+          <t>['promise', 'this', 'year', 'iwg', 'will', 'produce', 'ost', 'for', 'anime', 'ill', 'retweet', 'this', 'later', 'ikuzo', 'minna']</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['promise', 'this', 'tahun', 'iwg', 'will', 'produce', 'ost', 'for', 'anime', 'ill', 'retweet', 'this', 'later', 'ikuzo', 'minna']</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>['junius', 'dgr', 'lagu', 'wege', 'next', 'bkal', 'mledak', 'nga']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['junius', 'dgr', 'lagu', 'wege', 'next', 'bkal', 'mledak', 'nga']</t>
+          <t>['promise', 'this', 'iwg', 'will', 'produce', 'ost', 'for', 'anime', 'ill', 'retweet', 'this', 'later', 'ikuzo', 'minna']</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>['promise', 'this', 'iwg', 'will', 'produce', 'ost', 'for', 'anime', 'ill', 'retweet', 'this', 'later', 'ikuzo', 'minna']</t>
         </is>
       </c>
     </row>
@@ -3095,34 +3462,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>19409</v>
+        <v>32245</v>
       </c>
       <c r="C76" t="n">
-        <v>235</v>
+        <v>373</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>ng ntr gua tanyain kl ud ada jwbannya gua email</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>['no']</t>
+          <t>['ng', 'ntr', 'gua', 'tanyain', 'kl', 'ud', 'ada', 'jwbannya', 'gua', 'email']</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['ng', 'nanti', 'gue', 'tanyakan', 'kalau', 'sudah', 'ada', 'jwbannya', 'gue', 'email']</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>['no']</t>
+          <t>&lt;FreqDist with 9 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['no']</t>
+          <t>['ng', 'gue', 'jwbannya', 'gue', 'email']</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>['ng', 'gue', 'jwbannya', 'gue', 'email']</t>
         </is>
       </c>
     </row>
@@ -3131,34 +3503,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>19410</v>
+        <v>32246</v>
       </c>
       <c r="C77" t="n">
-        <v>235</v>
+        <v>373</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>he always there</t>
+          <t>how much</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>['he', 'always', 'there']</t>
+          <t>['how', 'much']</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['how', 'much']</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>['he', 'always', 'there']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['he', 'always', 'there']</t>
+          <t>['how', 'much']</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>['how', 'much']</t>
         </is>
       </c>
     </row>
@@ -3167,10 +3544,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>19411</v>
+        <v>32247</v>
       </c>
       <c r="C78" t="n">
-        <v>235</v>
+        <v>373</v>
       </c>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
@@ -3180,15 +3557,20 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="H78" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -3199,30 +3581,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>19412</v>
+        <v>32248</v>
       </c>
       <c r="C79" t="n">
-        <v>235</v>
-      </c>
-      <c r="D79" t="inlineStr"/>
+        <v>373</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>fact</t>
+        </is>
+      </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['fact']</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['fact']</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['fact']</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>['fact']</t>
         </is>
       </c>
     </row>
@@ -3231,34 +3622,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>19413</v>
+        <v>32249</v>
       </c>
       <c r="C80" t="n">
-        <v>235</v>
+        <v>373</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>hours free flow</t>
+          <t>selamat hari musik nasio</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>['hours', 'free', 'flow']</t>
+          <t>['selamat', 'hari', 'musik', 'nasio']</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['selamat', 'hari', 'musik', 'nasio']</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>['hours', 'free', 'flow']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['hours', 'free', 'flow']</t>
+          <t>['selamat', 'musik', 'nasio']</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>['selamat', 'musik', 'nasio']</t>
         </is>
       </c>
     </row>
@@ -3267,34 +3663,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>19414</v>
+        <v>32250</v>
       </c>
       <c r="C81" t="n">
-        <v>235</v>
+        <v>373</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>just got tons of pics of wedding dinner ask me what you want to see</t>
+          <t>random camera roll</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['just', 'got', 'tons', 'of', 'pics', 'of', 'wedding', 'dinner', 'ask', 'me', 'what', 'you', 'want', 'to', 'see']</t>
+          <t>['random', 'camera', 'roll']</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['random', 'camera', 'gulungan']</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>['just', 'got', 'tons', 'of', 'pics', 'of', 'wedding', 'dinner', 'ask', 'me', 'what', 'you', 'want', 'to', 'see']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['just', 'got', 'tons', 'of', 'pics', 'of', 'wedding', 'dinner', 'ask', 'me', 'what', 'you', 'want', 'to', 'see']</t>
+          <t>['random', 'camera', 'gulungan']</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>['random', 'camera', 'gulung']</t>
         </is>
       </c>
     </row>
@@ -3303,34 +3704,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>19415</v>
+        <v>32251</v>
       </c>
       <c r="C82" t="n">
-        <v>235</v>
+        <v>373</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>asldkslwkeksnalrjwka</t>
+          <t>broooo</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>['asldkslwkeksnalrjwka']</t>
+          <t>['broooo']</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
+          <t>['broooo']</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>['asldkslwkeksnalrjwka']</t>
-        </is>
-      </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['asldkslwkeksnalrjwka']</t>
+          <t>['broooo']</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>['broooo']</t>
         </is>
       </c>
     </row>
@@ -3339,34 +3745,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>19416</v>
+        <v>32252</v>
       </c>
       <c r="C83" t="n">
-        <v>235</v>
+        <v>373</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>wih dokter awak  bsa nga diurus lgi nh gua</t>
+          <t>yaynay</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>['wih', 'dokter', 'awak', 'bsa', 'nga', 'diurus', 'lgi', 'nh', 'gua']</t>
+          <t>['yaynay']</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['yaynay']</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>['wih', 'dokter', 'awak', 'bsa', 'nga', 'diurus', 'lgi', 'nh', 'gua']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['wih', 'dokter', 'awak', 'bsa', 'nga', 'urus', 'lgi', 'nh', 'gua']</t>
+          <t>['yaynay']</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>['yaynay']</t>
         </is>
       </c>
     </row>
@@ -3375,34 +3786,35 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>19417</v>
+        <v>32253</v>
       </c>
       <c r="C84" t="n">
-        <v>235</v>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>rei bikin ginian lagi dong skr lg nga bisa join aaaa</t>
-        </is>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['rei', 'bikin', 'ginian', 'lagi', 'dong', 'skr', 'lg', 'nga', 'bisa', 'join', 'aaaa']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>['rei', 'ginian', 'skr', 'lg', 'nga', 'join', 'aaaa']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['rei', 'ginian', 'skr', 'lg', 'nga', 'join', 'aaaa']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3411,30 +3823,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>19418</v>
+        <v>32254</v>
       </c>
       <c r="C85" t="n">
-        <v>235</v>
-      </c>
-      <c r="D85" t="inlineStr"/>
+        <v>373</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>im not even  real rapper</t>
+        </is>
+      </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['im', 'not', 'even', 'real', 'rapper']</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['im', 'not', 'even', 'real', 'rapper']</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['im', 'not', 'even', 'real', 'rapper']</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>['im', 'not', 'even', 'real', 'rapper']</t>
         </is>
       </c>
     </row>
@@ -3443,34 +3864,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>19419</v>
+        <v>32255</v>
       </c>
       <c r="C86" t="n">
-        <v>235</v>
+        <v>373</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>kaga ada anget gegara baru merit dari baru kelar juga ribut kita mah</t>
+          <t>alice</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>['kaga', 'ada', 'anget', 'gegara', 'baru', 'merit', 'dari', 'baru', 'kelar', 'juga', 'ribut', 'kita', 'mah']</t>
+          <t>['alice']</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
+          <t>['alice']</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>['kaga', 'anget', 'gegara', 'merit', 'kelar', 'ribut', 'mah']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['kaga', 'anget', 'gegara', 'rit', 'kelar', 'ribut', 'mah']</t>
+          <t>['alice']</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>['alice']</t>
         </is>
       </c>
     </row>
@@ -3479,30 +3905,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>19420</v>
+        <v>32256</v>
       </c>
       <c r="C87" t="n">
-        <v>235</v>
-      </c>
-      <c r="D87" t="inlineStr"/>
+        <v>373</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>wendywalters aduh ngatau ah</t>
+        </is>
+      </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['wendywalters', 'aduh', 'ngatau', 'ah']</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['wendywalters', 'aduh', 'ngatau', 'ah']</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['wendywalters', 'aduh', 'ngatau', 'ah']</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>['wendywalters', 'aduh', 'ngatau', 'ah']</t>
         </is>
       </c>
     </row>
@@ -3511,34 +3946,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>19421</v>
+        <v>32257</v>
       </c>
       <c r="C88" t="n">
-        <v>235</v>
+        <v>373</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>rt</t>
+          <t>wheres the super follows wheeeere</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>['rt']</t>
+          <t>['wheres', 'the', 'super', 'follows', 'wheeeere']</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['wheres', 'the', 'super', 'follows', 'wheeeere']</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['wheres', 'the', 'super', 'follows', 'wheeeere']</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>['wheres', 'the', 'super', 'follows', 'wheeeere']</t>
         </is>
       </c>
     </row>
@@ -3547,34 +3987,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>19422</v>
+        <v>32258</v>
       </c>
       <c r="C89" t="n">
-        <v>235</v>
+        <v>373</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>rt</t>
+          <t>zup</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>['rt']</t>
+          <t>['zup']</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
+          <t>['zup']</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['zup']</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>['zup']</t>
         </is>
       </c>
     </row>
@@ -3583,34 +4028,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>19423</v>
+        <v>32259</v>
       </c>
       <c r="C90" t="n">
-        <v>235</v>
+        <v>373</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>cc all my producer friends</t>
+          <t>gas</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>['cc', 'all', 'my', 'producer', 'friends']</t>
+          <t>['gas']</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['gas']</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>['cc', 'all', 'my', 'producer', 'friends']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['cc', 'all', 'my', 'producer', 'friends']</t>
+          <t>['gas']</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>['gas']</t>
         </is>
       </c>
     </row>
@@ -3619,34 +4069,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>19424</v>
+        <v>32260</v>
       </c>
       <c r="C91" t="n">
-        <v>235</v>
+        <v>373</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>this is gon  my main sound</t>
+          <t>need to put  followers on tiktok on my bio</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>['this', 'is', 'gon', 'my', 'main', 'sound']</t>
+          <t>['need', 'to', 'put', 'followers', 'on', 'tiktok', 'on', 'my', 'bio']</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['need', 'to', 'put', 'pengikut', 'on', 'tiktok', 'on', 'my', 'bio']</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>['this', 'is', 'gon', 'my', 'main', 'sound']</t>
+          <t>&lt;FreqDist with 8 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['this', 'is', 'gon', 'my', 'main', 'sound']</t>
+          <t>['need', 'to', 'put', 'pengikut', 'on', 'tiktok', 'on', 'my', 'bio']</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>['need', 'to', 'put', 'ikut', 'on', 'tiktok', 'on', 'my', 'bio']</t>
         </is>
       </c>
     </row>
@@ -3655,34 +4110,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>19425</v>
+        <v>32261</v>
       </c>
       <c r="C92" t="n">
-        <v>235</v>
+        <v>373</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>they deadass think theyre that close smh</t>
+          <t>go little nightmares ii ep yb</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>['they', 'deadass', 'think', 'theyre', 'that', 'close', 'smh']</t>
+          <t>['go', 'little', 'nightmares', 'ii', 'ep', 'yb']</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['go', 'little', 'nightmares', 'ih', 'ep', 'yb']</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>['they', 'deadass', 'think', 'theyre', 'that', 'close', 'smh']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['they', 'deadass', 'think', 'theyre', 'that', 'close', 'smh']</t>
+          <t>['go', 'little', 'nightmares', 'ih', 'ep', 'yb']</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>['go', 'little', 'nightmares', 'ih', 'ep', 'yb']</t>
         </is>
       </c>
     </row>
@@ -3691,34 +4151,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>19426</v>
+        <v>32262</v>
       </c>
       <c r="C93" t="n">
-        <v>235</v>
+        <v>373</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>wendywalters coba dibalik laki yang ngomong kaga kebelah tu bandara ngurah rai</t>
+          <t>wii</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>['wendywalters', 'coba', 'dibalik', 'laki', 'yang', 'ngomong', 'kaga', 'kebelah', 'tu', 'bandara', 'ngurah', 'rai']</t>
+          <t>['wii']</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['wii']</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>['wendywalters', 'coba', 'dibalik', 'laki', 'ngomong', 'kaga', 'kebelah', 'tu', 'bandara', 'ngurah', 'rai']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['wendywalters', 'coba', 'balik', 'laki', 'ngomong', 'kaga', 'belah', 'tu', 'bandara', 'ngurah', 'rai']</t>
+          <t>['wii']</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>['wii']</t>
         </is>
       </c>
     </row>
@@ -3727,34 +4192,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>19427</v>
+        <v>32263</v>
       </c>
       <c r="C94" t="n">
-        <v>235</v>
+        <v>373</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>wkwkwkwkwk</t>
+          <t>asjdjskkslskakskalaoeoqo</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>['wkwkwkwkwk']</t>
+          <t>['asjdjskkslskakskalaoeoqo']</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
+          <t>['asjdjskkslskakskalaoeoqo']</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>['wkwkwkwkwk']</t>
-        </is>
-      </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>['wkwkwkwkwk']</t>
+          <t>['asjdjskkslskakskalaoeoqo']</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>['asjdjskkslskakskalaoeoqo']</t>
         </is>
       </c>
     </row>
@@ -3763,34 +4233,35 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>19428</v>
+        <v>32264</v>
       </c>
       <c r="C95" t="n">
-        <v>235</v>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>mna bktiiny</t>
-        </is>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
-          <t>['mna', 'bktiiny']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>['mna', 'bktiiny']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>['mna', 'bktiiny']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3799,34 +4270,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>19429</v>
+        <v>32265</v>
       </c>
       <c r="C96" t="n">
-        <v>235</v>
+        <v>373</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>design by</t>
+          <t>going to blow sum heads lfgggg</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>['design', 'by']</t>
+          <t>['going', 'to', 'blow', 'sum', 'heads', 'lfgggg']</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['pergi', 'to', 'blow', 'sum', 'heads', 'lfgggg']</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>['design', 'by']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>['design', 'by']</t>
+          <t>['pergi', 'to', 'blow', 'sum', 'heads', 'lfgggg']</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>['pergi', 'to', 'blow', 'sum', 'heads', 'lfgggg']</t>
         </is>
       </c>
     </row>
@@ -3835,30 +4311,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>19430</v>
+        <v>32266</v>
       </c>
       <c r="C97" t="n">
-        <v>235</v>
-      </c>
-      <c r="D97" t="inlineStr"/>
+        <v>373</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>lnii</t>
+        </is>
+      </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['lnii']</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['lnii']</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['lnii']</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>['lnii']</t>
         </is>
       </c>
     </row>
@@ -3867,34 +4352,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>19431</v>
+        <v>32267</v>
       </c>
       <c r="C98" t="n">
-        <v>235</v>
+        <v>373</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>ill post pics of my wedding by your request</t>
+          <t>apa yang berubah anjing</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>['ill', 'post', 'pics', 'of', 'my', 'wedding', 'by', 'your', 'request']</t>
+          <t>['apa', 'yang', 'berubah', 'anjing']</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['apa', 'yang', 'berubah', 'anjing']</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>['ill', 'post', 'pics', 'of', 'my', 'wedding', 'by', 'your', 'request']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>['ill', 'post', 'pics', 'of', 'my', 'wedding', 'by', 'your', 'request']</t>
+          <t>['berubah', 'anjing']</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>['ubah', 'anjing']</t>
         </is>
       </c>
     </row>
@@ -3903,34 +4393,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>19432</v>
+        <v>32268</v>
       </c>
       <c r="C99" t="n">
-        <v>235</v>
+        <v>373</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>mardial wkwkwkwkwkwkwkwkwkw</t>
+          <t>wendywalters gua wakilin yang wendy mau sampein yak emosi bgt dia haha kalo emang kuarga wendy sesuai sama ster</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>['mardial', 'wkwkwkwkwkwkwkwkwkw']</t>
+          <t>['wendywalters', 'gua', 'wakilin', 'yang', 'wendy', 'mau', 'sampein', 'yak', 'emosi', 'bgt', 'dia', 'haha', 'kalo', 'emang', 'kuarga', 'wendy', 'sesuai', 'sama', 'ster']</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['wendywalters', 'gue', 'wakilin', 'yang', 'wendy', 'mau', 'sampaikan', 'ya', 'emosi', 'banget', 'dia', 'haha', 'kalau', 'memang', 'kuarga', 'wendy', 'sesuai', 'sama', 'ster']</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>['mardial', 'wkwkwkwkwkwkwkwkwkw']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>['mardial', 'wkwkwkwkwkwkwkwkwkw']</t>
+          <t>['wendywalters', 'gue', 'wakilin', 'wendy', 'emosi', 'banget', 'haha', 'kuarga', 'wendy', 'sesuai', 'ster']</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>['wendywalters', 'gue', 'wakilin', 'wendy', 'emosi', 'banget', 'haha', 'kuarga', 'wendy', 'sesuai', 'ster']</t>
         </is>
       </c>
     </row>
@@ -3939,34 +4434,35 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>19433</v>
+        <v>32269</v>
       </c>
       <c r="C100" t="n">
-        <v>235</v>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>you have hours days  week days  month youre not  president do both</t>
-        </is>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
         <is>
-          <t>['you', 'have', 'hours', 'days', 'week', 'days', 'month', 'youre', 'not', 'president', 'do', 'both']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>['you', 'have', 'hours', 'days', 'week', 'days', 'month', 'youre', 'not', 'president', 'do', 'both']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>['you', 'have', 'hours', 'days', 'week', 'days', 'month', 'youre', 'not', 'president', 'do', 'both']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3975,34 +4471,39 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>19434</v>
+        <v>32270</v>
       </c>
       <c r="C101" t="n">
-        <v>235</v>
+        <v>373</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>xx patricia gouw</t>
+          <t>da gila</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>['xx', 'patricia', 'gouw']</t>
+          <t>['da', 'gila']</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['dan', 'gila']</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>['xx', 'patricia', 'gouw']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>['xx', 'patricia', 'gouw']</t>
+          <t>['gila']</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>['gila']</t>
         </is>
       </c>
     </row>
